--- a/fichier_config_PIF.xlsx
+++ b/fichier_config_PIF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aeroportsdeparis-my.sharepoint.com/personal/wassim_zouitene_adp_fr/Documents/Documents/GitHub/pifprevi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{EFEDD9F9-1FAF-4513-94F4-CD4BC3E5CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96D3BD0-7350-4D92-978F-7E051C469475}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{EFEDD9F9-1FAF-4513-94F4-CD4BC3E5CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEB61DB4-2775-4D25-ADC6-4D48AA900653}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="15" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="15" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Terminal 1_5" sheetId="14" r:id="rId14"/>
     <sheet name="Terminal 1_6" sheetId="15" r:id="rId15"/>
     <sheet name="dispatch_sat" sheetId="16" r:id="rId16"/>
+    <sheet name="Feuil1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1317,7 +1318,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,6 +1377,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29901511-704F-41BE-9A4C-90A00FA470D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
